--- a/Z9_Maven/src/test/resources/testData/Book1.xlsx
+++ b/Z9_Maven/src/test/resources/testData/Book1.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumbh\OneDrive\Desktop\Akshay\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4218CD6-8904-49D9-9A6B-66C578738071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9D92BC1B-383A-4454-AAF2-948A768DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{044B212B-0D45-453C-804A-03E8F07FEB72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -507,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073C0D2E-3896-4D44-B701-D6133F4CC2B9}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -573,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -602,7 +598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -631,7 +627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -660,7 +656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
